--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bablove/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C838032-B849-4C4B-B288-3C51661B7BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1426,9 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1548,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1857,18 +1871,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26">
+    <row r="1" spans="1:3" ht="25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1916,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1913,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1924,7 +1938,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1935,7 +1949,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1946,7 +1960,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -6929,6 +6943,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C3 C5:C1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C838032-B849-4C4B-B288-3C51661B7BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841DFA68-73B1-4CE0-B93A-E81435D93B8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1971,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841DFA68-73B1-4CE0-B93A-E81435D93B8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6305B1-6FEE-4CFA-BBEA-37A26DB49298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1982,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6305B1-6FEE-4CFA-BBEA-37A26DB49298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD712130-F3EA-48B0-8F07-9A6B5D6DDDE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1871,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1993,7 +1987,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD712130-F3EA-48B0-8F07-9A6B5D6DDDE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC0FA35-DD97-4CC9-B24E-AACF77F8E1D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1866,7 +1866,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2319,7 +2319,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
@@ -2330,7 +2330,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
@@ -2352,7 +2352,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
@@ -2434,7 +2434,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2445,7 +2445,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2456,7 +2456,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC0FA35-DD97-4CC9-B24E-AACF77F8E1D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E9F4A4-68E4-4C84-B78A-7049E9613CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="B476" sqref="B476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2489,7 +2489,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="21">
@@ -6834,7 +6834,7 @@
         <v>454</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
@@ -6856,7 +6856,7 @@
         <v>456</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E9F4A4-68E4-4C84-B78A-7049E9613CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A9C7E4-9D21-4485-B573-DEA1C3A1E872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="B476" sqref="B476"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="B482" sqref="B482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -6878,7 +6878,7 @@
         <v>458</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="21">
@@ -6889,7 +6889,7 @@
         <v>459</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A9C7E4-9D21-4485-B573-DEA1C3A1E872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8703609A-6003-4E1D-B6EC-43DED1850A07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="B482" sqref="B482"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="B475" sqref="B475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -6845,7 +6845,7 @@
         <v>455</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8703609A-6003-4E1D-B6EC-43DED1850A07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5157695F-C4E5-444E-B13D-4B60C0E5928D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="B475" sqref="B475"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2363,7 +2363,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21">
@@ -2396,7 +2396,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5157695F-C4E5-444E-B13D-4B60C0E5928D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4944DD-33AD-4F5D-BC7F-4B8897012B7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2407,7 +2407,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4944DD-33AD-4F5D-BC7F-4B8897012B7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38A42D2-163A-4CE6-87C5-3A29BD612E73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2218,7 +2218,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38A42D2-163A-4CE6-87C5-3A29BD612E73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E20630-1A9D-4C39-B3D3-4146117F0A6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2031,7 +2031,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
@@ -2042,7 +2042,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
@@ -2086,7 +2086,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
@@ -2467,7 +2467,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
@@ -2478,7 +2478,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E20630-1A9D-4C39-B3D3-4146117F0A6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F989AEAD-121C-437A-8D93-3CF5B966357B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="9970" yWindow="0" windowWidth="9340" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2934,7 +2934,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">
@@ -3055,7 +3055,7 @@
         <v>111</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F989AEAD-121C-437A-8D93-3CF5B966357B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D728D7-B5D6-483F-B6D5-F64577D6DCF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9970" yWindow="0" windowWidth="9340" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -3712,7 +3712,7 @@
         <v>172</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
@@ -3723,7 +3723,7 @@
         <v>173</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">
@@ -3734,7 +3734,7 @@
         <v>174</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
@@ -3745,7 +3745,7 @@
         <v>175</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
@@ -3756,7 +3756,7 @@
         <v>176</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="21">
@@ -3767,7 +3767,7 @@
         <v>177</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="21">
@@ -3778,7 +3778,7 @@
         <v>178</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="21">
@@ -3789,7 +3789,7 @@
         <v>179</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="21">
